--- a/synthese_partis.xlsx
+++ b/synthese_partis.xlsx
@@ -471,7 +471,7 @@
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>Emploi(29), Social(26), Gouvernance(17)</t>
+          <t>Emploi(23), Gouvernance(22), Social(15)</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
@@ -480,7 +480,7 @@
         </is>
       </c>
       <c r="E2" t="n">
-        <v>0.7941176470588235</v>
+        <v>0.75</v>
       </c>
     </row>
     <row r="3">
@@ -494,7 +494,7 @@
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>Économie(141), Environnement(107), Social(79)</t>
+          <t>Économie(116), Environnement(79), Justice(62)</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="E3" t="n">
-        <v>0.1666666666666667</v>
+        <v>0.2564102564102564</v>
       </c>
     </row>
     <row r="4">
@@ -517,7 +517,7 @@
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>Gouvernance(24), Justice(8), Social(7)</t>
+          <t>Gouvernance(24), Environnement(10), Justice(9)</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
@@ -526,7 +526,7 @@
         </is>
       </c>
       <c r="E4" t="n">
-        <v>0.3333333333333333</v>
+        <v>0.3620689655172414</v>
       </c>
     </row>
     <row r="5">
@@ -540,7 +540,7 @@
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>Social(44), Emploi(27), Économie(27)</t>
+          <t>Social(38), Économie(27), Emploi(24)</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
@@ -549,7 +549,7 @@
         </is>
       </c>
       <c r="E5" t="n">
-        <v>0.5227272727272727</v>
+        <v>0.5</v>
       </c>
     </row>
   </sheetData>
